--- a/tbl打包工具/excel/mapEnemyConfig.xlsx
+++ b/tbl打包工具/excel/mapEnemyConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>enemyId</t>
   </si>
@@ -72,6 +72,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>敌武将技能ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌武将装备ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌武将等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌武将官职ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌部曲兵种ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌部曲士兵数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌部曲等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌部曲士气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8101;1-8201</t>
+  </si>
+  <si>
+    <t>1-8101;1-8201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌部曲阵法ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generalId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>敌部曲ID字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,74 +151,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敌武将技能ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌武将装备ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌武将等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌武将官职ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌部曲兵种ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌部曲士兵数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌部曲等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌部曲士气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-8101;1-8201</t>
-  </si>
-  <si>
-    <t>1-8101;1-8201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-9031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌部曲阵法ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generalId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bingId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhenId</t>
+    <t>20000标识相应位置没有敌部曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -534,51 +538,51 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="B2" s="1">
-        <v>9002</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -586,10 +590,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B3" s="1">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -597,23 +601,23 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -621,10 +625,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B4" s="1">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -632,23 +636,23 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
+      <c r="E4" s="1">
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H4" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -656,10 +660,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B5" s="1">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -667,8 +671,8 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -677,13 +681,13 @@
         <v>403</v>
       </c>
       <c r="H5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -691,36 +695,71 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B6" s="1">
-        <v>9001</v>
+        <v>9005</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H6" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
         <v>100</v>
       </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>404</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -733,104 +772,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" activeCellId="1" sqref="D16 D16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
